--- a/data/trans_dic/P53_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P53_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior</t>
+          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior (tasa de respuesta: 90,32%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>43,12%</t>
+          <t>37,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>43,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>50,6%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>45,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>52,56%</t>
+          <t>46,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>52,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>46,41%</t>
+          <t>51,69%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>46,12%</t>
+          <t>42,97%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>48,38%</t>
+          <t>41,98%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>47,35%</t>
+          <t>42,51%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>48,32%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>47,94%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>35,31%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,71; 49,2</t>
+          <t>27,13; 51,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,09; 53,92</t>
+          <t>25,43; 47,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,31; 54,05</t>
+          <t>34,07; 57,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,86; 54,33</t>
+          <t>34,72; 55,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,88; 56,22</t>
+          <t>14,62; 35,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,3; 55,75</t>
+          <t>35,27; 55,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,07; 59,78</t>
+          <t>37,02; 55,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>44,5; 57,13</t>
+          <t>43,76; 61,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>42,0; 50,81</t>
+          <t>44,92; 58,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,99; 51,6</t>
+          <t>33,99; 53,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42,02; 54,97</t>
+          <t>34,03; 49,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,1; 53,4</t>
+          <t>35,41; 50,27</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>41,76; 55,77</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>43,03; 54,3</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>27,88; 42,55</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>29,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>24,86%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>25,98%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>27,57%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,2; 26,6</t>
+          <t>13,37; 28,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,75; 26,32</t>
+          <t>15,92; 30,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,97; 28,41</t>
+          <t>17,47; 30,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,83; 33,1</t>
+          <t>20,13; 32,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,45; 38,1</t>
+          <t>11,24; 25,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,15; 36,22</t>
+          <t>23,64; 35,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,65; 34,84</t>
+          <t>23,71; 34,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,18; 34,42</t>
+          <t>24,64; 34,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,36; 30,48</t>
+          <t>25,52; 35,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,18; 29,94</t>
+          <t>15,34; 25,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,03; 30,18</t>
+          <t>20,64; 29,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,48; 31,35</t>
+          <t>20,96; 29,69</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>22,26; 30,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>24,09; 31,94</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>14,29; 22,4</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,86%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 11,07</t>
+          <t>2,4; 11,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 14,75</t>
+          <t>5,81; 18,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 13,51</t>
+          <t>3,02; 14,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 14,1</t>
+          <t>4,09; 13,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 14,87</t>
+          <t>0,97; 6,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,8; 14,82</t>
+          <t>2,23; 8,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 12,82</t>
+          <t>4,4; 10,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 13,87</t>
+          <t>5,02; 11,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,37</t>
+          <t>6,87; 13,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 12,97</t>
+          <t>2,13; 6,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 10,91</t>
+          <t>3,0; 8,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 11,88</t>
+          <t>6,16; 12,53</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 10,74</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,67; 11,95</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 5,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>28,77%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>31,27%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>17,12%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,06; 23,6</t>
+          <t>18,75; 26,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,18; 25,28</t>
+          <t>18,21; 27,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,53; 24,77</t>
+          <t>18,11; 32,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,15; 27,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,25; 33,44</t>
+          <t>13,0; 23,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,66; 31,53</t>
+          <t>33,82; 40,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,77; 30,58</t>
+          <t>31,18; 40,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,53; 29,98</t>
+          <t>30,5; 47,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,83; 27,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,97; 27,49</t>
+          <t>12,12; 23,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,99; 26,64</t>
+          <t>27,06; 32,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,75; 28,04</t>
+          <t>25,6; 31,98</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>25,82; 37,11</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>13,52; 21,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20,51%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21,18%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21,42%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23,0%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30,87%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28,27%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27,84%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27,73%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,86%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25,66%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24,71%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>24,58%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>25,33%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18,07; 23,58</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18,29; 24,48</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18,18; 25,41</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19,48; 28,19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11,69; 18,35</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>28,38; 33,54</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25,72; 31,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25,17; 30,99</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25,06; 30,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,03; 22,14</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23,88; 27,67</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>22,79; 26,88</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>22,47; 27,01</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>23,09; 28,07</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>14,66; 18,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior (tasa de respuesta: 90,32%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>84479</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>123006</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>124087</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>198346</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>104640</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>102120</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>167930</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>175079</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>278166</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>243183</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>186599</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>290936</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>299166</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>476511</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>347822</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>59460; 111896</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>82768; 154725</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>97005; 164811</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>158231; 253256</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>61273; 148802</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>79473; 125792</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>132842; 199342</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>146376; 204082</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>241734; 312649</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>192380; 302456</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>151271; 218886</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>242340; 344038</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>258570; 345300</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>427677; 539636</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>274641; 419175</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>119631</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>184771</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>195296</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>301288</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>156673</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>184052</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>246871</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>231620</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>302136</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>189294</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>303684</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>431642</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>426916</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>603425</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>345967</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>81134; 174854</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>137403; 261998</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>147800; 261840</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>236967; 386753</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>110364; 250158</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>148687; 222691</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>207128; 297474</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>196387; 277137</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>258101; 356206</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>148250; 243408</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>255056; 368492</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>364030; 515568</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>365769; 498111</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>527245; 699099</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>278365; 436490</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>23988</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>70809</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>40941</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>64819</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21383</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24395</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>51987</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>49246</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>82375</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32916</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48383</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>122795</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>90187</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>147194</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>54299</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10430; 51577</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>39265; 124759</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18624; 87683</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33576; 112492</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7383; 51429</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11400; 44835</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>32071; 79410</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31925; 73177</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>57748; 116476</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18199; 56941</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28438; 81311</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>86614; 175995</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>61147; 134585</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>110873; 198525</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>32740; 89008</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>436.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>414355</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>289825</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>100093</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>161101</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>647037</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>416566</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>123451</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>129629</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1061392</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>706391</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>223543</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>290730</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>350888; 488330</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>235289; 353237</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>72642; 129449</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>121124; 214856</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>587141; 702355</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>362577; 473706</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>95718; 148959</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>92879; 178606</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>976203; 1165162</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>628633; 785118</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>184605; 265279</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>229559; 359169</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>317.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>643.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>517.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>448.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>642453</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>668410</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>460417</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>564452</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>443796</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>957605</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>883354</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>579395</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>662677</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>595022</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1600058</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1551764</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1039812</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1227130</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1038818</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>566138; 738796</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>577420; 772582</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>390639; 546190</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>477980; 691851</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>361311; 567200</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>880620; 1040668</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>803498; 972294</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>523840; 644847</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>598855; 732214</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>505606; 698247</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1488838; 1725227</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1431287; 1688077</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>950367; 1142721</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1118222; 1359519</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>915716; 1178612</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
